--- a/biology/Histoire de la zoologie et de la botanique/Marilise_Neptune_Rouzier/Marilise_Neptune_Rouzier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marilise_Neptune_Rouzier/Marilise_Neptune_Rouzier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marilise Neptune Rouzier, née en 1945, est une écrivaine, biologiste et ethnobotaniste haïtienne.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 12 janvier 2010, Marilise Neptune Rouzier reçoit de la famille avec son mari Philippe Rouzier à leur domicile de Port-au-Prince lorsque survient un séisme. Elle est la seule survivante du groupe[1].
-En 2013, en plus de ses publications, Marilise Neptune Rouzier a également été consultante pour la collection de plantes médicinales du jardin botanique du parc de Martissant à Port-au-Prince[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 janvier 2010, Marilise Neptune Rouzier reçoit de la famille avec son mari Philippe Rouzier à leur domicile de Port-au-Prince lorsque survient un séisme. Elle est la seule survivante du groupe.
+En 2013, en plus de ses publications, Marilise Neptune Rouzier a également été consultante pour la collection de plantes médicinales du jardin botanique du parc de Martissant à Port-au-Prince. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Petit guide médicinal du jardin, Banque mondiale, 1997 (OCLC 326865543)
 Plantes médicinales d'Haïti : description, usages et propriétés, Regain, 1998 (réédité en 2014 par les Éditions de l'université d'État d'Haïti)
